--- a/biology/Histoire de la zoologie et de la botanique/William_Parker_Foulke/William_Parker_Foulke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Parker_Foulke/William_Parker_Foulke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Parker Foulke (1816-1865) est le « découvreur » du premier squelette complet de dinosaure, un Hadrosaurus foulkii, en Amérique du Nord à Haddonfield dans le New Jersey en 1858. « Son » dinosaure fut nommé ainsi notamment par Joseph Leidy[1] (1823-1891).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Parker Foulke (1816-1865) est le « découvreur » du premier squelette complet de dinosaure, un Hadrosaurus foulkii, en Amérique du Nord à Haddonfield dans le New Jersey en 1858. « Son » dinosaure fut nommé ainsi notamment par Joseph Leidy (1823-1891).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Descendant des Quakers ayant émigré en 1698, William Parker Foulke était un abolitionniste, un philanthrope, un homme de loi, un historien et un géologue. 
 Foulke, sensible au problème carcéral, rejoint la Philadelphia Society for Alleviating the Miseries in Public Prisons en juillet 1845. Il passe plusieurs années à comparer des modèles disciplinaires alternatifs et publie des articles dans le Journal on Prison Discipline and Philanthropy. Puis il effectue une visite des différentes institutions correctionnelles entre 1847 et 1848.
@@ -546,7 +560,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1855, Foulke se marie avec Julia DeVeaux Powel (d. 1884), fille du Col. John Hare Powel, avec laquelle il eut 7 enfants. Il meurt le 18 juin 1865.
 </t>
